--- a/excels/datas/Equipments.xlsx
+++ b/excels/datas/Equipments.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +92,93 @@
   </si>
   <si>
     <t>技能，可空填0</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
+    <t>本战每次受击 -2</t>
+  </si>
+  <si>
+    <t>Tier2</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>装备后在开战时给自身“减伤”状态</t>
+  </si>
+  <si>
+    <t>蜜瓜</t>
+  </si>
+  <si>
+    <t>本战护盾 1 层</t>
+  </si>
+  <si>
+    <t>Tier4</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>装备后在开战时给自身“护盾”状态</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+  </si>
+  <si>
+    <t>倒下召唤 1/1 蜜蜂</t>
+  </si>
+  <si>
+    <t>Tier1</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>装备后在倒下时召唤蜜蜂</t>
+  </si>
+  <si>
+    <t>辣椒</t>
+  </si>
+  <si>
+    <t>攻击溅射后 1 名 3 点</t>
+  </si>
+  <si>
+    <t>Tier3</t>
+  </si>
+  <si>
+    <t>装备后在攻击时对后排溅射</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>倒下以 1HP 复活体回场</t>
+  </si>
+  <si>
+    <t>Tier5</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>装备后在倒下时“复活体”返回</t>
+  </si>
+  <si>
+    <t>椰子</t>
+  </si>
+  <si>
+    <t>本战免疫一次伤害</t>
+  </si>
+  <si>
+    <t>Tier6</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>装备后在开战时获得完全护盾</t>
   </si>
 </sst>
 </file>
@@ -1059,21 +1146,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="8.30769230769231" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.9230769230769" customWidth="1"/>
-    <col min="6" max="6" width="14.2307692307692" customWidth="1"/>
-    <col min="8" max="8" width="14.2307692307692" customWidth="1"/>
+    <col min="3" max="3" width="8.61538461538461" customWidth="1"/>
+    <col min="4" max="4" width="14.3076923076923" customWidth="1"/>
+    <col min="5" max="5" width="25.5384615384615" customWidth="1"/>
+    <col min="6" max="6" width="6.69230769230769" customWidth="1"/>
+    <col min="7" max="7" width="12.2307692307692" customWidth="1"/>
+    <col min="8" max="8" width="16.3076923076923" customWidth="1"/>
+    <col min="9" max="9" width="36.5384615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1152,6 +1241,162 @@
       </c>
       <c r="H3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4">
+        <v>6001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>3101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5">
+        <v>6002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>3102</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>6003</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>3103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <v>6004</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>3104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <v>6005</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>3105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9">
+        <v>6006</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>3106</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
